--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_8_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_8_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.96419152905965, 50.05653963878778]</t>
+          <t>[49.96419634525922, 50.05653482258821]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.960864521587666, 50.026671529226775]</t>
+          <t>[49.96085291858227, 50.02668313223217]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.96414655665888, 50.05999682705369]</t>
+          <t>[49.96445084161835, 50.05969254209422]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.96908829153969, 50.02587423842762]</t>
+          <t>[49.96908925346484, 50.02587327650247]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_8_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_8_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.96419634525922, 50.05653482258821]</t>
+          <t>[49.96415791813539, 50.05657324971204]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.96085291858227, 50.02668313223217]</t>
+          <t>[49.960851769452155, 50.026684281362286]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.96445084161835, 50.05969254209422]</t>
+          <t>[49.965364525345485, 50.058778858367084]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.96908925346484, 50.02587327650247]</t>
+          <t>[49.96908422231639, 50.02587830765092]</t>
         </is>
       </c>
       <c r="U3" t="n">
